--- a/MBG01D.xlsx
+++ b/MBG01D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="106">
   <si>
     <t/>
   </si>
@@ -181,13 +181,19 @@
     <t>DM NASI SINGKONG 250</t>
   </si>
   <si>
+    <t>20140704</t>
+  </si>
+  <si>
+    <t>IDM BRS PORANG 4X40G</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>20088559</t>
   </si>
   <si>
     <t>IDM KETAN PUTIH 500G</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>20054184</t>
@@ -715,7 +721,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1123,7 +1129,7 @@
         <v>58</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,13 +1183,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>24</v>
@@ -1220,18 +1226,18 @@
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -1240,10 +1246,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1260,18 +1266,18 @@
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1280,10 +1286,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,18 +1306,18 @@
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1320,30 +1326,30 @@
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1360,7 +1366,7 @@
         <v>53</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>50</v>
@@ -1380,10 +1386,10 @@
         <v>53</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,18 +1406,18 @@
         <v>53</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -1420,10 +1426,10 @@
         <v>53</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1440,10 +1446,10 @@
         <v>53</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1460,7 +1466,7 @@
         <v>53</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>50</v>
@@ -1480,10 +1486,10 @@
         <v>53</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1500,10 +1506,10 @@
         <v>53</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,9 +1526,29 @@
         <v>53</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>50</v>
       </c>
     </row>

--- a/MBG01D.xlsx
+++ b/MBG01D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="104">
   <si>
     <t/>
   </si>
@@ -52,135 +52,126 @@
     <t>4</t>
   </si>
   <si>
-    <t>20092710</t>
-  </si>
-  <si>
-    <t>IDM BRS PLN WG PRM 5</t>
+    <t>20134759</t>
+  </si>
+  <si>
+    <t>LARIST BRS PRM 5KG</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20125752</t>
+  </si>
+  <si>
+    <t>BEFOOD STRA RMOS 5KG</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20128415</t>
+  </si>
+  <si>
+    <t>MED/SPHP BERAS 5KG</t>
+  </si>
+  <si>
+    <t>PT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20090009</t>
+  </si>
+  <si>
+    <t>SANIA BRS PRMIUM 5KG</t>
+  </si>
+  <si>
+    <t>10009392</t>
+  </si>
+  <si>
+    <t>W/A BRS S.SPR KPL 5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20097275</t>
+  </si>
+  <si>
+    <t>LAHAP BRS LELE 5KG</t>
+  </si>
+  <si>
+    <t>20119830</t>
+  </si>
+  <si>
+    <t>LARST BRS SLYP SPR 5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20139532</t>
+  </si>
+  <si>
+    <t>A/R BRS KHS PLN WG5</t>
+  </si>
+  <si>
+    <t>RT,(E-14H)</t>
+  </si>
+  <si>
+    <t>20106876</t>
+  </si>
+  <si>
+    <t>UDG D/KOKI BRS PRM 5</t>
+  </si>
+  <si>
+    <t>RT,(E-1.5B)</t>
+  </si>
+  <si>
+    <t>20084982</t>
+  </si>
+  <si>
+    <t>D/KOKI BRAS SHT 5KG</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20000412</t>
+  </si>
+  <si>
+    <t>IDM KACANG HIJAU 500</t>
+  </si>
+  <si>
+    <t>PT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20061785</t>
+  </si>
+  <si>
+    <t>IDM POP CORN PCK200G</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20133809</t>
+  </si>
+  <si>
+    <t>DM NASI JAGUNG 250</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20133810</t>
+  </si>
+  <si>
+    <t>DM NASI SINGKONG 250</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>20134759</t>
-  </si>
-  <si>
-    <t>LARIST BRS PRM 5KG</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>20125752</t>
-  </si>
-  <si>
-    <t>BEFOOD STRA RMOS 5KG</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20128415</t>
-  </si>
-  <si>
-    <t>MED/SPHP BERAS 5KG</t>
-  </si>
-  <si>
-    <t>PT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20090009</t>
-  </si>
-  <si>
-    <t>SANIA BRS PRMIUM 5KG</t>
-  </si>
-  <si>
-    <t>10009392</t>
-  </si>
-  <si>
-    <t>W/A BRS S.SPR KPL 5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20097275</t>
-  </si>
-  <si>
-    <t>LAHAP BRS LELE 5KG</t>
-  </si>
-  <si>
-    <t>20119830</t>
-  </si>
-  <si>
-    <t>LARST BRS SLYP SPR 5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20139532</t>
-  </si>
-  <si>
-    <t>A/R BRS KHS PLN WG5</t>
-  </si>
-  <si>
-    <t>RT,(E-14H)</t>
-  </si>
-  <si>
-    <t>20106876</t>
-  </si>
-  <si>
-    <t>UDG D/KOKI BRS PRM 5</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>RT,(E-1.5B)</t>
-  </si>
-  <si>
-    <t>20084982</t>
-  </si>
-  <si>
-    <t>D/KOKI BRAS SHT 5KG</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20000412</t>
-  </si>
-  <si>
-    <t>IDM KACANG HIJAU 500</t>
-  </si>
-  <si>
-    <t>PT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20061785</t>
-  </si>
-  <si>
-    <t>IDM POP CORN PCK200G</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20133809</t>
-  </si>
-  <si>
-    <t>DM NASI JAGUNG 250</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>20133810</t>
-  </si>
-  <si>
-    <t>DM NASI SINGKONG 250</t>
-  </si>
-  <si>
     <t>20140704</t>
   </si>
   <si>
@@ -202,10 +193,13 @@
     <t>IDM BERAS MERAH 2KG</t>
   </si>
   <si>
-    <t>20136927</t>
-  </si>
-  <si>
-    <t>LARIST BRS PRM 2.5KG</t>
+    <t>20141277</t>
+  </si>
+  <si>
+    <t>LARST BRS SLP SPR2.5</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>20085279</t>
@@ -721,7 +715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -829,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -849,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -863,13 +857,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,18 +880,18 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -906,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>5</v>
@@ -926,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>5</v>
@@ -934,10 +928,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -946,10 +940,10 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,10 +960,10 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>37</v>
@@ -1009,84 +1003,84 @@
         <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1094,19 +1088,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -1123,30 +1117,30 @@
         <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
@@ -1154,22 +1148,22 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,13 +1177,13 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1206,10 +1200,10 @@
         <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1226,18 +1220,18 @@
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
@@ -1246,10 +1240,10 @@
         <v>12</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,18 +1260,18 @@
         <v>12</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1286,10 +1280,10 @@
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1306,18 +1300,18 @@
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1329,27 +1323,27 @@
         <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,13 +1357,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,13 +1377,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,33 +1397,33 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,13 +1437,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,13 +1457,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,13 +1477,13 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1503,13 +1497,13 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,33 +1517,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
